--- a/images/rollcall/encuestas_resumen.xlsx
+++ b/images/rollcall/encuestas_resumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/images/rollcall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B36F2E-B85A-C648-A606-1BFCDECB17DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16A325-498E-674B-9C5A-7B934F8624EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{957A7A27-7702-D54D-BA06-F549F4B880E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>1V Gana Boric</t>
   </si>
@@ -50,12 +50,15 @@
   <si>
     <t>Feedback</t>
   </si>
+  <si>
+    <t>Studio Publico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,30 +66,236 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,114 +612,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74B5B7D-67B4-0545-91A6-5C2CC626950B}">
-  <dimension ref="E10:M24"/>
+  <dimension ref="D9:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="H10" s="1" t="s">
+    <row r="9" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E15" s="1" t="s">
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E20" s="1" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+      <c r="E20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/images/rollcall/encuestas_resumen.xlsx
+++ b/images/rollcall/encuestas_resumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/images/rollcall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16A325-498E-674B-9C5A-7B934F8624EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE55258-FBA7-8E4D-A42E-4C7442978D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{957A7A27-7702-D54D-BA06-F549F4B880E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>1V Gana Boric</t>
   </si>
@@ -48,10 +48,22 @@
     <t>2V Gana Kast</t>
   </si>
   <si>
-    <t>Feedback</t>
+    <t>Cadem (4/11)</t>
   </si>
   <si>
-    <t>Studio Publico</t>
+    <t>UDD (3/11)</t>
+  </si>
+  <si>
+    <t>Activa (5/11) sin segunda vuelta</t>
+  </si>
+  <si>
+    <t>Feedback (2/11)</t>
+  </si>
+  <si>
+    <t>AtlasIntel (2/11)</t>
+  </si>
+  <si>
+    <t>Studio Publico (31/10)</t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74B5B7D-67B4-0545-91A6-5C2CC626950B}">
-  <dimension ref="D9:N25"/>
+  <dimension ref="D9:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,7 +736,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="5"/>
@@ -739,7 +751,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="5"/>
@@ -753,59 +765,65 @@
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
-      <c r="E20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="13"/>
@@ -827,36 +845,92 @@
       <c r="M23" s="6"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E15:G19"/>
-    <mergeCell ref="E20:G24"/>
+    <mergeCell ref="E15:G21"/>
+    <mergeCell ref="E22:G27"/>
     <mergeCell ref="H10:J14"/>
     <mergeCell ref="K10:M14"/>
   </mergeCells>

--- a/images/rollcall/encuestas_resumen.xlsx
+++ b/images/rollcall/encuestas_resumen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/images/rollcall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE55258-FBA7-8E4D-A42E-4C7442978D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3AF3E-169A-CB4C-8E93-8DC8675E890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{957A7A27-7702-D54D-BA06-F549F4B880E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{957A7A27-7702-D54D-BA06-F549F4B880E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>1V Gana Boric</t>
   </si>
@@ -54,9 +54,6 @@
     <t>UDD (3/11)</t>
   </si>
   <si>
-    <t>Activa (5/11) sin segunda vuelta</t>
-  </si>
-  <si>
     <t>Feedback (2/11)</t>
   </si>
   <si>
@@ -64,13 +61,55 @@
   </si>
   <si>
     <t>Studio Publico (31/10)</t>
+  </si>
+  <si>
+    <t>Cosa Nostra (26/10)</t>
+  </si>
+  <si>
+    <t>UDD (3/11) empate entre Boric y Kast en segunda. Activa (5/11) sin segunda vuelta; Criteria (2/11) sin segunda vuelta.</t>
+  </si>
+  <si>
+    <t>Activa (5/11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7</t>
+  </si>
+  <si>
+    <t>LA ÚLTIMA ENCUESTA: PRIMERA VUELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1</t>
+  </si>
+  <si>
+    <t>Criteria (2/11)</t>
+  </si>
+  <si>
+    <t>LA ÚLTIMA ENCUESTA: COMBINACIONES DE DOS VUELTAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +121,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -309,6 +354,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,15 +680,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74B5B7D-67B4-0545-91A6-5C2CC626950B}">
-  <dimension ref="D9:N29"/>
+  <dimension ref="D7:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -644,8 +741,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -661,8 +765,19 @@
       <c r="L10" s="17"/>
       <c r="M10" s="18"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -674,8 +789,15 @@
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
@@ -687,8 +809,15 @@
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
@@ -700,8 +829,15 @@
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -713,8 +849,15 @@
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
       <c r="E15" s="16" t="s">
         <v>3</v>
@@ -728,8 +871,15 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
@@ -743,53 +893,101 @@
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="6"/>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
@@ -803,8 +1001,19 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
@@ -816,8 +1025,19 @@
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="E22" s="16" t="s">
         <v>1</v>
@@ -831,8 +1051,19 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
@@ -844,96 +1075,217 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="4"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="13"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="4"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="4"/>
+      <c r="P25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J26" s="13"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="1"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="O8:T8"/>
     <mergeCell ref="E15:G21"/>
-    <mergeCell ref="E22:G27"/>
+    <mergeCell ref="E22:G29"/>
+    <mergeCell ref="O10:Q14"/>
+    <mergeCell ref="R10:T14"/>
     <mergeCell ref="H10:J14"/>
     <mergeCell ref="K10:M14"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="O17 O18:O22 R17:R18" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/images/rollcall/encuestas_resumen.xlsx
+++ b/images/rollcall/encuestas_resumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/images/rollcall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3AF3E-169A-CB4C-8E93-8DC8675E890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD516195-DC23-B54F-9EC8-1596061DA8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{957A7A27-7702-D54D-BA06-F549F4B880E7}"/>
   </bookViews>
@@ -328,6 +328,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,17 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +683,7 @@
   <dimension ref="D7:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,26 +708,26 @@
     </row>
     <row r="8" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D8" s="1"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -754,27 +754,27 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="16" t="s">
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.2">
@@ -782,19 +782,19 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.2">
@@ -802,19 +802,19 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="21"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.2">
@@ -822,19 +822,19 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="21"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -842,28 +842,28 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="21"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="12"/>
@@ -876,14 +876,14 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="26"/>
+      <c r="T15" s="17"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
         <v>5</v>
@@ -903,9 +903,9 @@
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
         <v>6</v>
@@ -915,14 +915,14 @@
       <c r="L17" s="1"/>
       <c r="M17" s="6"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="13"/>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="S17" s="5" t="s">
@@ -933,9 +933,9 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
         <v>8</v>
@@ -945,14 +945,14 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="18" t="s">
         <v>13</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="13"/>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="S18" s="5" t="s">
@@ -963,9 +963,9 @@
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
         <v>7</v>
@@ -975,7 +975,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="P19" s="5" t="s">
@@ -989,9 +989,9 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
         <v>4</v>
@@ -1001,7 +1001,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="5" t="s">
@@ -1015,9 +1015,9 @@
     </row>
     <row r="21" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="14"/>
@@ -1025,7 +1025,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="18" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="5" t="s">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="13"/>
@@ -1051,7 +1051,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="27" t="s">
+      <c r="O22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="5" t="s">
@@ -1065,9 +1065,9 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="13"/>
@@ -1085,9 +1085,9 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="13"/>
@@ -1105,9 +1105,9 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="13"/>
@@ -1127,9 +1127,9 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
         <v>5</v>
@@ -1151,9 +1151,9 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="13"/>
@@ -1171,9 +1171,9 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="13"/>
@@ -1191,9 +1191,9 @@
     </row>
     <row r="29" spans="4:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="15"/>
@@ -1201,7 +1201,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="25"/>
+      <c r="O29" s="16"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="7"/>
